--- a/data/trans_dic/P25A_1_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_1_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por diabetes/azúcar alta en sangre/azúcar en orina</t>
+          <t>Población con limitación por diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +705,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>1,4%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,99%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,25%</t>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,73</t>
+          <t>0,7; 5,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,47</t>
+          <t>0,18; 1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,53</t>
+          <t>0,14; 1,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 17,41</t>
+          <t>0,48; 2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,33</t>
+          <t>1,82; 4,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,47</t>
+          <t>1,08; 3,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,66</t>
+          <t>0,52; 2,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 25,14</t>
+          <t>0,69; 2,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,18</t>
+          <t>0,3; 1,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,69</t>
+          <t>0,6; 2,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,21</t>
+          <t>0,67; 2,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,68</t>
+          <t>0,56; 3,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 1,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 1,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 2,92</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 2,83</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0,65%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,88</t>
+          <t>0,15; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,45</t>
+          <t>0,24; 1,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,41</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,85</t>
+          <t>0,94; 4,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,41</t>
+          <t>0,79; 3,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,21</t>
+          <t>0,17; 2,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,48</t>
+          <t>0,24; 1,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,36</t>
+          <t>0,38; 2,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,92</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,5</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,51</t>
+          <t>0,98; 4,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 1,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 0,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 1,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,11</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 3,49</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 3,14</t>
         </is>
       </c>
     </row>
@@ -941,12 +1110,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,81</t>
+          <t>1,43; 8,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,52; 6,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,61</t>
+          <t>0,73; 6,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,19</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 5,66</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 4,47</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>0,69; 9,64</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,29</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 4,61</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 4,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 5,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>1,17%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>1,06%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>10,53%</t>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,95</t>
+          <t>0,52; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,38</t>
+          <t>0,5; 1,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,3</t>
+          <t>0,37; 1,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 15,25</t>
+          <t>0,46; 1,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,26</t>
+          <t>1,9; 4,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,73</t>
+          <t>1,19; 2,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,52</t>
+          <t>0,68; 1,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 23,84</t>
+          <t>0,63; 1,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,01</t>
+          <t>0,5; 1,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,36</t>
+          <t>0,63; 2,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,24</t>
+          <t>0,59; 1,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 15,75</t>
+          <t>1,15; 3,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 1,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 1,39</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 1,2</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 1,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 2,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 2,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31128</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9164</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6676</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32568</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22307</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25450</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13205</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2982</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25235</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>53435</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>34614</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>22630</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5476</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9608</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>57803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11555; 83537</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2911; 23299</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2382; 25045</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1097; 4837</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4138; 9951</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17638; 60635</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9437; 44779</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12588; 45117</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5436; 27893</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1427; 6141</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1583; 4865</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10148; 54805</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30106; 107467</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18649; 55811</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10537; 39431</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3468; 9082</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6809; 13547</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36126; 97208</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7320</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4070</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9076</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23848</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10783</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8930</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13883</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30954</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18103</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22959</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>54802</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2012; 20104</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12449</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3337; 20248</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1580</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>691; 3650</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10907; 44873</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2320; 27818</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3225; 19938</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5205; 28324</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2899</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1500</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13613; 63051</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7329; 38372</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5583; 26258</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>12930; 41170</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2900</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1003; 4880</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31827; 87222</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15434</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8929</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5515</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12519</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19460</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13295</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>21448</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6044; 33957</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 27524</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2206; 28824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2969; 27204</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12959</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18536</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2844; 39687</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2912; 27305</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10067; 38217</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4277; 34823</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8476; 46981</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38448</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28668</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26280</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8408</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>65345</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42809</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38405</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32603</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3557</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3224</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68708</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>81257</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>67074</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>58884</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6368</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>11632</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>134053</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18085; 90850</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17099; 51951</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12903; 49213</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1383; 5047</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5727; 12373</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40867; 99916</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24381; 68552</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22776; 60871</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18201; 54849</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1906; 6998</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1778; 5438</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41638; 113297</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>51223; 131549</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>46955; 97699</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>38451; 84941</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3962; 10102</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8270; 15516</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>96536; 185609</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
